--- a/NORMALIZACION PROYECTO.xlsx
+++ b/NORMALIZACION PROYECTO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Sena\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,12 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
   <si>
-    <t>NORMALIZACION GESTION DE HORARIOS</t>
-  </si>
-  <si>
-    <t>HORARIO</t>
-  </si>
-  <si>
     <t>I.D ESTUDIANTE</t>
   </si>
   <si>
@@ -50,9 +44,6 @@
     <t>ID. RECTOR</t>
   </si>
   <si>
-    <t>I.D PADRE</t>
-  </si>
-  <si>
     <t>PRIMER NOMBRE</t>
   </si>
   <si>
@@ -90,6 +81,15 @@
   </si>
   <si>
     <t>I.D DOCENTE</t>
+  </si>
+  <si>
+    <t>INGRESO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORMALIZACION GESTION DE INGRESO A LA INSTITUCION </t>
+  </si>
+  <si>
+    <t>I.D ACUDIENTE</t>
   </si>
 </sst>
 </file>
@@ -139,13 +139,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,17 +399,17 @@
     <tableColumn id="1" name="I.D ESTUDIANTE" dataDxfId="73"/>
     <tableColumn id="2" name="I.D COORDINADOR" dataDxfId="72"/>
     <tableColumn id="3" name="ID. RECTOR" dataDxfId="71"/>
-    <tableColumn id="7" name="I.D DOCENTE " dataDxfId="8"/>
-    <tableColumn id="4" name="I.D SECRETARIO" dataDxfId="70"/>
-    <tableColumn id="5" name="I.D PADRE" dataDxfId="69"/>
-    <tableColumn id="6" name="HORARIO" dataDxfId="68"/>
+    <tableColumn id="7" name="I.D DOCENTE " dataDxfId="70"/>
+    <tableColumn id="4" name="I.D SECRETARIO" dataDxfId="69"/>
+    <tableColumn id="5" name="I.D ACUDIENTE" dataDxfId="68"/>
+    <tableColumn id="6" name="INGRESO" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="G18:G19" insertRow="1" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="G18:G19" insertRow="1" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="G18:G19"/>
   <tableColumns count="1">
     <tableColumn id="1" name="I.D COORDINADOR"/>
@@ -419,7 +419,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla11" displayName="Tabla11" ref="H18:H19" insertRow="1" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla11" displayName="Tabla11" ref="H18:H19" insertRow="1" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="H18:H19"/>
   <tableColumns count="1">
     <tableColumn id="1" name="I.D RECTOR"/>
@@ -429,7 +429,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla12" displayName="Tabla12" ref="I18:I19" insertRow="1" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla12" displayName="Tabla12" ref="I18:I19" insertRow="1" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="I18:I19"/>
   <tableColumns count="1">
     <tableColumn id="1" name="I.D SECRETARIO"/>
@@ -442,7 +442,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla15" displayName="Tabla15" ref="L18:L19" insertRow="1" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="L18:L19"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="I.D ESTUDIANTE" dataDxfId="22"/>
+    <tableColumn id="1" name="I.D ESTUDIANTE" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -452,14 +452,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla16" displayName="Tabla16" ref="M18:M19" insertRow="1" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="M18:M19"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="I.D PADRE" dataDxfId="19"/>
+    <tableColumn id="1" name="I.D ACUDIENTE" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla17" displayName="Tabla17" ref="G22:G23" insertRow="1" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla17" displayName="Tabla17" ref="G22:G23" insertRow="1" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="G22:G23"/>
   <tableColumns count="1">
     <tableColumn id="1" name="I.D COORDINADOR"/>
@@ -469,17 +469,17 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla18" displayName="Tabla18" ref="H22:H23" insertRow="1" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla18" displayName="Tabla18" ref="H22:H23" insertRow="1" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="H22:H23"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="HORARIO"/>
+    <tableColumn id="1" name="INGRESO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla19" displayName="Tabla19" ref="C22:C23" insertRow="1" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla19" displayName="Tabla19" ref="C22:C23" insertRow="1" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="C22:C23"/>
   <tableColumns count="1">
     <tableColumn id="1" name="I.D RECTOR"/>
@@ -489,17 +489,17 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla20" displayName="Tabla20" ref="D22:D23" insertRow="1" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla20" displayName="Tabla20" ref="D22:D23" insertRow="1" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="D22:D23"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="HORARIO"/>
+    <tableColumn id="1" name="INGRESO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabla21" displayName="Tabla21" ref="C26:C27" insertRow="1" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tabla21" displayName="Tabla21" ref="C26:C27" insertRow="1" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="C26:C27"/>
   <tableColumns count="1">
     <tableColumn id="1" name="I.D SECRETARIO"/>
@@ -509,24 +509,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B12:F13" insertRow="1" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B12:F13" insertRow="1" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="B12:F13"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="I.D ESTUDIANTE" dataDxfId="65"/>
-    <tableColumn id="2" name="PRIMER NOMBRE" dataDxfId="64"/>
-    <tableColumn id="3" name="SEGUNDO NOMBRE" dataDxfId="63"/>
-    <tableColumn id="4" name="PRIMER APELLIDO" dataDxfId="62"/>
-    <tableColumn id="5" name="SEGUNDO APELLIDO" dataDxfId="61"/>
+    <tableColumn id="1" name="I.D ESTUDIANTE" dataDxfId="64"/>
+    <tableColumn id="2" name="PRIMER NOMBRE" dataDxfId="63"/>
+    <tableColumn id="3" name="SEGUNDO NOMBRE" dataDxfId="62"/>
+    <tableColumn id="4" name="PRIMER APELLIDO" dataDxfId="61"/>
+    <tableColumn id="5" name="SEGUNDO APELLIDO" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla22" displayName="Tabla22" ref="D26:D27" insertRow="1" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla22" displayName="Tabla22" ref="D26:D27" insertRow="1" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="D26:D27"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="HORARIO" dataDxfId="11"/>
+    <tableColumn id="1" name="INGRESO" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -570,7 +570,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tabla26" displayName="Tabla26" ref="H26:H27" insertRow="1" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="H26:H27"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="HORARIO"/>
+    <tableColumn id="1" name="INGRESO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -587,85 +587,85 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabla28" displayName="Tabla28" ref="K26:K27" insertRow="1" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabla28" displayName="Tabla28" ref="K26:K27" insertRow="1" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="K26:K27"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="I.D ESTUDIANTE" dataDxfId="2"/>
+    <tableColumn id="1" name="I.D ESTUDIANTE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="G12:K13" insertRow="1" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="G12:K13" insertRow="1" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="G12:K13"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="I.D COORDINADOR" dataDxfId="58"/>
-    <tableColumn id="2" name="PRIMER APELLIDO" dataDxfId="57"/>
-    <tableColumn id="3" name="SEGUNDO APELLIDO" dataDxfId="56"/>
-    <tableColumn id="4" name="PRIMER APELLIDO2" dataDxfId="55"/>
-    <tableColumn id="5" name="SEGUNDO APELLIDO2" dataDxfId="54"/>
+    <tableColumn id="1" name="I.D COORDINADOR" dataDxfId="57"/>
+    <tableColumn id="2" name="PRIMER APELLIDO" dataDxfId="56"/>
+    <tableColumn id="3" name="SEGUNDO APELLIDO" dataDxfId="55"/>
+    <tableColumn id="4" name="PRIMER APELLIDO2" dataDxfId="54"/>
+    <tableColumn id="5" name="SEGUNDO APELLIDO2" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="L12:P13" insertRow="1" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="L12:P13" insertRow="1" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="L12:P13"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="I.D RECTOR " dataDxfId="51"/>
-    <tableColumn id="2" name="PRIMER NOMBRE" dataDxfId="50"/>
-    <tableColumn id="3" name="SEGUNDO NOMBRE" dataDxfId="49"/>
-    <tableColumn id="4" name="PRIMER APELLIDO" dataDxfId="48"/>
-    <tableColumn id="5" name="SEGUNDO APELLIDO" dataDxfId="47"/>
+    <tableColumn id="1" name="I.D RECTOR " dataDxfId="50"/>
+    <tableColumn id="2" name="PRIMER NOMBRE" dataDxfId="49"/>
+    <tableColumn id="3" name="SEGUNDO NOMBRE" dataDxfId="48"/>
+    <tableColumn id="4" name="PRIMER APELLIDO" dataDxfId="47"/>
+    <tableColumn id="5" name="SEGUNDO APELLIDO" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="Q12:U13" insertRow="1" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="Q12:U13" insertRow="1" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="Q12:U13"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="I.D SECRETARIO" dataDxfId="44"/>
-    <tableColumn id="2" name="PRIMER NOMBRE" dataDxfId="43"/>
-    <tableColumn id="3" name="SEGUNDO APELLIDO" dataDxfId="42"/>
-    <tableColumn id="4" name="PRIMER APELLIDO" dataDxfId="41"/>
-    <tableColumn id="5" name="SEGUNDO APELLIDO2" dataDxfId="40"/>
+    <tableColumn id="1" name="I.D SECRETARIO" dataDxfId="43"/>
+    <tableColumn id="2" name="PRIMER NOMBRE" dataDxfId="42"/>
+    <tableColumn id="3" name="SEGUNDO APELLIDO" dataDxfId="41"/>
+    <tableColumn id="4" name="PRIMER APELLIDO" dataDxfId="40"/>
+    <tableColumn id="5" name="SEGUNDO APELLIDO2" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="V12:Z13" insertRow="1" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="V12:Z13" insertRow="1" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="V12:Z13"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="I.D PADRE" dataDxfId="37"/>
-    <tableColumn id="2" name="PRIMER NOMBRE" dataDxfId="36"/>
-    <tableColumn id="3" name="SEGUNDO NOMBRE" dataDxfId="35"/>
-    <tableColumn id="4" name="PRIMER APELLIDO" dataDxfId="34"/>
-    <tableColumn id="5" name="SEGUNDO APELLIDO" dataDxfId="33"/>
+    <tableColumn id="1" name="I.D ACUDIENTE" dataDxfId="36"/>
+    <tableColumn id="2" name="PRIMER NOMBRE" dataDxfId="35"/>
+    <tableColumn id="3" name="SEGUNDO NOMBRE" dataDxfId="34"/>
+    <tableColumn id="4" name="PRIMER APELLIDO" dataDxfId="33"/>
+    <tableColumn id="5" name="SEGUNDO APELLIDO" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="AA12:AC13" insertRow="1" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="AA12:AC13" insertRow="1" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="AA12:AC13"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="HORARIO" dataDxfId="30"/>
-    <tableColumn id="2" name="HORA ENTRADA" dataDxfId="29"/>
-    <tableColumn id="3" name="HORA SALIDA " dataDxfId="28"/>
+    <tableColumn id="1" name="INGRESO" dataDxfId="29"/>
+    <tableColumn id="2" name="HORA ENTRADA" dataDxfId="28"/>
+    <tableColumn id="3" name="HORA SALIDA " dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="C18:C19" insertRow="1" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="C18:C19" insertRow="1" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="C18:C19"/>
   <tableColumns count="1">
     <tableColumn id="1" name="I.D ESTUDIANTE"/>
@@ -675,10 +675,10 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="D18:D19" insertRow="1" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="D18:D19" insertRow="1" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="D18:D19"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="HORARIO"/>
+    <tableColumn id="1" name="INGRESO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -949,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AH27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,62 +965,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="6" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="F6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1033,139 +1033,139 @@
       <c r="L7" s="2"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="12" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="M12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="2" t="s">
+      <c r="V12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="AC12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="2" t="s">
+      <c r="AD12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH12" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH12" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
@@ -1200,47 +1200,47 @@
       <c r="AC13" s="2"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
     </row>
     <row r="18" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
@@ -1252,36 +1252,36 @@
     </row>
     <row r="22" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="G22" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="3:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.25">
